--- a/test/data/pdb_metafile_sample1c.xlsx
+++ b/test/data/pdb_metafile_sample1c.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qzhang/qzwk_dir/qzModules/ProteinStructureUtils/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B77FEF4E-6C33-1C45-AE8A-71365291AA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822EB644-995F-E64D-931A-76A6AA1A1784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="2000" windowWidth="24240" windowHeight="13020"/>
+    <workbookView xWindow="1280" yWindow="1980" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pdb_metafile_sample1c" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Narrative ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Feature ID</t>
   </si>
   <si>
-    <t xml:space="preserve">PDB molecule </t>
-  </si>
-  <si>
     <t>PDB filename</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>JCVISYN3_0001</t>
   </si>
   <si>
-    <t>chain1</t>
-  </si>
-  <si>
     <t>JCVISYN3_0001.pdb</t>
   </si>
   <si>
@@ -58,22 +52,13 @@
     <t>JCVISYN3_0002</t>
   </si>
   <si>
-    <t>chain2</t>
-  </si>
-  <si>
     <t>JCVISYN3_0003</t>
   </si>
   <si>
-    <t>chain3</t>
-  </si>
-  <si>
     <t>JCVISYN3_0003.pdb</t>
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>chain4</t>
   </si>
   <si>
     <t>JCVISYN3_0004.pdb</t>
@@ -82,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -916,14 +901,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -939,85 +926,70 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50569</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50569</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50569</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50569</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/pdb_metafile_sample1c.xlsx
+++ b/test/data/pdb_metafile_sample1c.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qzhang/qzwk_dir/qzModules/ProteinStructureUtils/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822EB644-995F-E64D-931A-76A6AA1A1784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35AA428-7D08-9A4F-ACBF-7CF7978CB5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="1980" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Narrative ID</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>JCVISYN3_0004.pdb</t>
+  </si>
+  <si>
+    <t>From RCSB</t>
   </si>
 </sst>
 </file>
@@ -902,15 +905,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -926,8 +929,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50569</v>
       </c>
@@ -943,8 +949,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50569</v>
       </c>
@@ -960,8 +969,11 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50569</v>
       </c>
@@ -977,8 +989,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50569</v>
       </c>
@@ -989,6 +1004,9 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>

--- a/test/data/pdb_metafile_sample1c.xlsx
+++ b/test/data/pdb_metafile_sample1c.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qzhang/qzwk_dir/qzModules/ProteinStructureUtils/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35AA428-7D08-9A4F-ACBF-7CF7978CB5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36A2461-AAC9-974D-AC05-286D89CA2150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="1980" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Narrative ID</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>JCVISYN3_0004.pdb</t>
-  </si>
-  <si>
-    <t>From RCSB</t>
   </si>
 </sst>
 </file>
@@ -905,15 +902,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -929,11 +926,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50569</v>
       </c>
@@ -949,11 +943,8 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50569</v>
       </c>
@@ -969,11 +960,8 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50569</v>
       </c>
@@ -989,11 +977,8 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50569</v>
       </c>
@@ -1004,9 +989,6 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
